--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>GENI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,45 +711,57 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>55800</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>53700</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -767,16 +781,22 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -796,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,16 +835,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3300</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -838,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,37 +901,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,25 +987,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -964,19 +1018,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-429200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,19 +1072,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1103,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,8 +1138,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,25 +1173,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-463800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1122,16 +1208,22 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1139,20 +1231,26 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,25 +1278,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1209,25 +1313,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,19 +1488,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1383,25 +1523,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,25 +1593,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1470,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,25 +1702,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,37 +1768,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>46700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,23 +1838,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,25 +1873,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>65200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1704,23 +1908,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>276100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>276000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1733,66 +1943,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>10400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>523100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,26 +2083,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>12000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>393600</v>
+      </c>
+      <c r="F54" s="3">
         <v>277400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>277800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,25 +2222,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1991,26 +2253,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,26 +2288,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,13 +2358,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2107,23 +2393,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>186700</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,25 +2723,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-634100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,25 +2863,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>642600</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3">
         <v>267200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>267500</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,25 +2973,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-464200</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +3027,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +3058,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,25 +3233,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3287,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3318,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3388,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-80500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,25 +3578,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>277600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,25 +3648,31 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3177,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>GENI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,50 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,23 +718,29 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69100</v>
+      </c>
+      <c r="F8" s="3">
         <v>55800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>53700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,32 +750,38 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>86400</v>
+      </c>
+      <c r="F9" s="3">
         <v>240200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>40100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,23 +800,29 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-184400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>13600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +841,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,23 +862,25 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +899,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,23 +940,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,17 +972,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1022,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,31 +1040,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>133900</v>
+      </c>
+      <c r="F17" s="3">
         <v>485000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1024,20 +1077,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-429200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1118,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,20 +1139,22 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-34600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,16 +1176,22 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-50900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1217,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,31 +1258,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-463800</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1214,43 +1299,55 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,31 +1381,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-464200</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1319,31 +1422,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-464200</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1463,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,20 +1627,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>34600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,31 +1668,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-464200</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1709,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,31 +1750,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-464200</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1634,37 +1791,43 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1837,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,31 +1875,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>234200</v>
+      </c>
+      <c r="F41" s="3">
         <v>275300</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1912,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,20 +1953,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F43" s="3">
         <v>46700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,17 +1985,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,29 +2035,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,31 +2076,37 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>333900</v>
+      </c>
+      <c r="F46" s="3">
         <v>344600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>65200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1914,8 +2117,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1925,18 +2134,18 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>276100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>276000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,20 +2158,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,29 +2190,35 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>537600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>542500</v>
+      </c>
+      <c r="F49" s="3">
         <v>523100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,17 +2231,23 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,32 +2322,38 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F52" s="3">
         <v>12000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2363,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,32 +2404,38 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>887100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>896900</v>
+      </c>
+      <c r="F54" s="3">
         <v>890000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>393600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>277400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>277800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2445,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,31 +2483,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F57" s="3">
         <v>11800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>17200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2259,32 +2520,38 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,32 +2561,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F59" s="3">
         <v>205700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,32 +2602,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>146300</v>
+      </c>
+      <c r="F60" s="3">
         <v>217400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2643,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2373,10 +2658,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2399,29 +2684,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F62" s="3">
         <v>29900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2725,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,32 +2848,38 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>184800</v>
+      </c>
+      <c r="F66" s="3">
         <v>247400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>186700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2889,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,31 +3070,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-757300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-634100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-167800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +3111,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,31 +3234,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>706200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>712100</v>
+      </c>
+      <c r="F76" s="3">
         <v>642600</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>267200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>267500</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3275,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3316,43 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,31 +3362,37 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-464200</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3403,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,31 +3424,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>19500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3064,8 +3461,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,31 +3666,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3707,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,31 +3728,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3324,8 +3765,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,25 +3847,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-80500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3420,17 +3879,23 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,31 +4069,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>277600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3619,31 +4110,37 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-5100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3654,31 +4151,37 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +4190,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>GENI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,58 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,29 +726,35 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>85900</v>
+      </c>
+      <c r="F8" s="3">
         <v>84000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>69100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>53700</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,37 +764,43 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>101400</v>
+      </c>
+      <c r="F9" s="3">
         <v>109400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>86400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>240200</v>
       </c>
-      <c r="G9" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>80200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -806,28 +820,34 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F10" s="3">
         <v>-25400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-17300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-184400</v>
       </c>
-      <c r="G10" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>-26500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -847,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,28 +890,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>6500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -905,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,29 +980,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -978,17 +1018,23 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,37 +1094,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150900</v>
+      </c>
+      <c r="F17" s="3">
         <v>160300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>133900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>485000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>56800</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1083,28 +1137,34 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-76300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-64800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-429200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-3100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,28 +1207,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F20" s="3">
         <v>11700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-34600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>-2500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1182,28 +1250,34 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-47200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-50900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>-451500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,37 +1344,43 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-64600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-70500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-463800</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1305,49 +1391,61 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,37 +1485,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-53300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-70000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-464200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1428,37 +1532,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-53300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-70000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-464200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1469,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,28 +1767,34 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>34600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>2500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1674,37 +1814,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-53300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-70000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-464200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,37 +1908,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-53300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-70000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-464200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1797,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,37 +2049,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>174200</v>
+      </c>
+      <c r="F41" s="3">
         <v>222400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>234200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>275300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1918,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,25 +2139,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70600</v>
+        <v>56900</v>
       </c>
       <c r="E43" s="3">
-        <v>55200</v>
+        <v>89600</v>
       </c>
       <c r="F43" s="3">
-        <v>46700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>77300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>66000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>57800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1991,40 +2177,46 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2041,35 +2233,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31700</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>44500</v>
+        <v>29700</v>
       </c>
       <c r="F45" s="3">
-        <v>22500</v>
+        <v>24400</v>
       </c>
       <c r="G45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,37 +2280,43 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>294000</v>
+      </c>
+      <c r="F46" s="3">
         <v>324700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>333900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>344600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>65200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2123,16 +2327,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>22100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2140,18 +2350,18 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>276100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>276000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,26 +2374,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F48" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,35 +2412,41 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>473600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>516700</v>
+      </c>
+      <c r="F49" s="3">
         <v>537600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>542500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>523100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,17 +2459,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,38 +2562,44 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,38 +2656,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>778000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>859700</v>
+      </c>
+      <c r="F54" s="3">
         <v>887100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>896900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>890000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>393600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>277400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>277800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,37 +2745,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2526,38 +2788,44 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,38 +2835,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>105800</v>
+      </c>
+      <c r="F59" s="3">
         <v>132900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>135000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>205700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,38 +2882,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>134300</v>
+      </c>
+      <c r="F60" s="3">
         <v>152800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>146300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>217400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>89800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,25 +2929,31 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>7300</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>7400</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2690,35 +2976,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>38400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>29900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,38 +3164,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>168700</v>
+      </c>
+      <c r="F66" s="3">
         <v>180900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>184800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>247400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>186700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,37 +3418,43 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-802300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-797500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-757300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-704000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-634100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-167800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3117,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,37 +3606,43 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>636800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>691100</v>
+      </c>
+      <c r="F76" s="3">
         <v>706200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>712100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>642600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3">
         <v>267200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>267500</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3281,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,37 +3752,43 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-53300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-70000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-464200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3409,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,37 +3822,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F83" s="3">
         <v>17400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>10100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3467,8 +3865,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,37 +4100,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-34100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3713,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,37 +4170,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3771,8 +4213,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4307,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3862,22 +4322,22 @@
         <v>-12400</v>
       </c>
       <c r="E94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-35200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-80500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3885,17 +4345,23 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,37 +4561,43 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>33400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>375700</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>277600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4116,37 +4608,43 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4157,37 +4655,43 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-41100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3">
+        <v>264800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4196,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>GENI</t>
   </si>
@@ -800,7 +800,7 @@
         <v>240200</v>
       </c>
       <c r="I9" s="3">
-        <v>80200</v>
+        <v>40100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -847,7 +847,7 @@
         <v>-184400</v>
       </c>
       <c r="I10" s="3">
-        <v>-26500</v>
+        <v>13600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -913,7 +913,7 @@
         <v>6900</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -2071,11 +2071,11 @@
       <c r="H41" s="3">
         <v>275300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>1000</v>
       </c>
       <c r="J41" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -2260,10 +2260,10 @@
         <v>11100</v>
       </c>
       <c r="I45" s="3">
-        <v>5600</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2307,10 +2307,10 @@
         <v>344600</v>
       </c>
       <c r="I46" s="3">
-        <v>65200</v>
+        <v>1400</v>
       </c>
       <c r="J46" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
@@ -2353,11 +2353,11 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>276100</v>
       </c>
       <c r="J47" s="3">
-        <v>276100</v>
+        <v>276000</v>
       </c>
       <c r="K47" s="3">
         <v>276000</v>
@@ -2683,10 +2683,10 @@
         <v>890000</v>
       </c>
       <c r="I54" s="3">
-        <v>393600</v>
+        <v>277400</v>
       </c>
       <c r="J54" s="3">
-        <v>277400</v>
+        <v>277800</v>
       </c>
       <c r="K54" s="3">
         <v>277800</v>
@@ -2768,7 +2768,7 @@
         <v>11800</v>
       </c>
       <c r="I57" s="3">
-        <v>17200</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2862,10 +2862,10 @@
         <v>205700</v>
       </c>
       <c r="I59" s="3">
-        <v>32700</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2909,7 +2909,7 @@
         <v>217400</v>
       </c>
       <c r="I60" s="3">
-        <v>89800</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3002,8 +3002,8 @@
       <c r="H62" s="3">
         <v>29900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>9700</v>
       </c>
       <c r="J62" s="3">
         <v>9700</v>
@@ -3191,7 +3191,7 @@
         <v>247400</v>
       </c>
       <c r="I66" s="3">
-        <v>186700</v>
+        <v>10200</v>
       </c>
       <c r="J66" s="3">
         <v>10200</v>
@@ -3445,10 +3445,10 @@
         <v>-634100</v>
       </c>
       <c r="I72" s="3">
-        <v>-167800</v>
+        <v>-600</v>
       </c>
       <c r="J72" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-300</v>
@@ -3632,11 +3632,11 @@
       <c r="H76" s="3">
         <v>642600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>267200</v>
       </c>
       <c r="J76" s="3">
-        <v>267200</v>
+        <v>267500</v>
       </c>
       <c r="K76" s="3">
         <v>267500</v>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,32 +733,35 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E8" s="3">
         <v>71100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>85900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>84000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>53700</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,8 +774,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -779,32 +783,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E9" s="3">
         <v>61800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>101400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,32 +833,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="3">
         <v>9300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-15500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-25400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-17300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-184400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,32 +905,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,23 +1015,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1044,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1122,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E17" s="3">
         <v>110800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>485000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,32 +1170,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-429200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,32 +1242,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E20" s="3">
         <v>34900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,32 +1290,35 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>12400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-451500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,40 +1390,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-463800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,37 +1440,40 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1435,8 +1481,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-464200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-53300</v>
-      </c>
       <c r="G27" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-70000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-464200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,32 +1840,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-34900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-53300</v>
-      </c>
       <c r="G33" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-70000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-464200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-53300</v>
-      </c>
       <c r="G35" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-70000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-464200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,40 +2137,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E41" s="3">
         <v>138500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>234200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>275300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,29 +2235,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E43" s="3">
         <v>56900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>89600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>77300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,34 +2285,37 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2239,37 +2335,40 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E45" s="3">
         <v>37800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>200</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2286,40 +2385,43 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>238100</v>
+      </c>
+      <c r="E46" s="3">
         <v>233500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>294000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>324700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>333900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>344600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2333,19 +2435,22 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20900</v>
+        <v>29400</v>
       </c>
       <c r="E47" s="3">
-        <v>22100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>31100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2353,17 +2458,17 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>276100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>276000</v>
       </c>
       <c r="K47" s="3">
         <v>276000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>276000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2380,29 +2485,32 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2427,29 +2535,32 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>428900</v>
+      </c>
+      <c r="E49" s="3">
         <v>473600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>516700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>537600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>542500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>523100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2576,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,41 +2685,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36400</v>
+        <v>25800</v>
       </c>
       <c r="E52" s="3">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="F52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G52" s="3">
         <v>10300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>734000</v>
+      </c>
+      <c r="E54" s="3">
         <v>778000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>859700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>887100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>896900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>890000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>277400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>277800</v>
       </c>
       <c r="K54" s="3">
         <v>277800</v>
       </c>
       <c r="L54" s="3">
+        <v>277800</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,28 +2877,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E57" s="3">
         <v>12700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2777,10 +2908,10 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2794,28 +2925,31 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
         <v>7600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2823,12 +2957,12 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,41 +2975,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E59" s="3">
         <v>98100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>132900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>205700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,28 +3025,31 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E60" s="3">
         <v>118400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>134300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>146300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>217400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2918,11 +3058,11 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,19 +3075,22 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2956,7 +3099,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2982,28 +3125,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9700</v>
       </c>
       <c r="J62" s="3">
         <v>9700</v>
@@ -3011,8 +3157,8 @@
       <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>9700</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,28 +3325,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E66" s="3">
         <v>141200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>184800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>247400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10200</v>
       </c>
       <c r="J66" s="3">
         <v>10200</v>
@@ -3200,11 +3358,11 @@
         <v>10200</v>
       </c>
       <c r="L66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,40 +3595,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-811200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-802300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-797500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-757300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-704000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-634100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-300</v>
       </c>
       <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,40 +3795,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>572900</v>
+      </c>
+      <c r="E76" s="3">
         <v>636800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>691100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>706200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>712100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>642600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>267500</v>
       </c>
       <c r="K76" s="3">
         <v>267500</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+        <v>267500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-53300</v>
-      </c>
       <c r="G81" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-70000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-464200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,40 +4022,41 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,40 +4320,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>23100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,40 +4392,41 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,34 +4540,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4351,8 +4581,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,28 +4825,28 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>375700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>277600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4614,40 +4860,43 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4661,40 +4910,43 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>264800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,38 +737,44 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F8" s="3">
         <v>78700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>71100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>85900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>84000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>69100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>55800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>53700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,47 +784,53 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>102200</v>
+      </c>
+      <c r="F9" s="3">
         <v>72800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>61800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>101400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>109400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>86400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>240200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,38 +849,44 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>9300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-15500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-25400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-17300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-184400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +905,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,38 +931,40 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +983,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,38 +1039,44 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,17 +1086,23 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1151,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,46 +1174,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150200</v>
+      </c>
+      <c r="F17" s="3">
         <v>112000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>110800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>150900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>160300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>133900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>485000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>56800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1173,38 +1226,44 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-39700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-76300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-64800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-429200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1282,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,38 +1308,40 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="F20" s="3">
         <v>24600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>34900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>25400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>11700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-34600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,38 +1360,44 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="F21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-22100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-47200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-50900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-451500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1416,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,46 +1472,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-126700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-39600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-64600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-70500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-463800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1443,58 +1528,70 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-11300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,46 +1640,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-40200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-53300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-70000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-464200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1593,46 +1696,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-40200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-64600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-70000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-464200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1752,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1808,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1864,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1920,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,38 +1976,44 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>81900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-24600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-34900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-25400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-11700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>34600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,46 +2032,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-40200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-64600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-70000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-464200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2088,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,46 +2144,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-40200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-64600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-70000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-464200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2043,52 +2200,58 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2261,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2287,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,46 +2309,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>122700</v>
+      </c>
+      <c r="F41" s="3">
         <v>116900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>138500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>174200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>222400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>234200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>275300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2361,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,35 +2417,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F43" s="3">
         <v>69200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>56900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>89600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>77300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>66000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>57800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,49 +2464,55 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2338,44 +2529,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F45" s="3">
         <v>51700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>37800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,46 +2585,52 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>236500</v>
+      </c>
+      <c r="F46" s="3">
         <v>238100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>233500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>294000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>324700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>333900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>344600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2438,44 +2641,50 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F47" s="3">
         <v>29400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>29300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>31100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>276100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>276000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>276000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,35 +2697,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,44 +2744,50 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>459100</v>
+      </c>
+      <c r="F49" s="3">
         <v>428900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>473600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>516700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>537600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>542500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>523100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,17 +2800,23 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2865,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,47 +2921,53 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F52" s="3">
         <v>25800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>12000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2977,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,47 +3033,53 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>757900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>773300</v>
+      </c>
+      <c r="F54" s="3">
         <v>734000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>778000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>859700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>887100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>896900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>890000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>277400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>277800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>277800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3089,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3115,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,46 +3137,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F57" s="3">
         <v>30600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>20700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>19900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3189,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2937,38 +3204,38 @@
         <v>7200</v>
       </c>
       <c r="E58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,47 +3245,53 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F59" s="3">
         <v>102500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>98100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>105800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>132900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>135000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>205700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,47 +3301,53 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>171100</v>
+      </c>
+      <c r="F60" s="3">
         <v>140300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>118400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>134300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>152800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>146300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>217400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,34 +3357,40 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F61" s="3">
         <v>6900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3128,43 +3413,49 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>27000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>38400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>29900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9700</v>
       </c>
       <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>9700</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3469,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3525,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3581,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,47 +3637,53 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>196500</v>
+      </c>
+      <c r="F66" s="3">
         <v>161100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>141200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>168700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>180900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>184800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>247400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>10200</v>
       </c>
       <c r="L66" s="3">
         <v>10200</v>
       </c>
       <c r="M66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3693,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3719,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3771,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3827,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3883,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,46 +3939,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-964100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-939000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-811200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-802300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-797500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-757300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-704000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-634100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3995,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4051,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4107,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,46 +4163,52 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>593900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>576800</v>
+      </c>
+      <c r="F76" s="3">
         <v>572900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>636800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>691100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>706200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>712100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>642600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>267200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>267500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>267500</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4219,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4275,58 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,46 +4336,52 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-40200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-64600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-70000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-464200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4392,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,46 +4418,48 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F83" s="3">
         <v>16700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>17500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>17400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4073,8 +4470,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4526,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4582,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4638,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4694,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,46 +4750,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-25300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-34100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-29900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4806,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,46 +4832,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-10300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-12300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1200</v>
+        <v>-11200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>-12400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2900</v>
+        <v>-11600</v>
       </c>
       <c r="I91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4443,8 +4884,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4940,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,40 +4996,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-19500</v>
       </c>
       <c r="G94" s="3">
         <v>-12400</v>
       </c>
       <c r="H94" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-35200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-80500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4584,17 +5043,23 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5078,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5130,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5186,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5242,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,13 +5298,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4828,31 +5319,31 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>33400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>375700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>277600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4863,46 +5354,52 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-9900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4913,46 +5410,52 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-48200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-41100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>264800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -4961,6 +5464,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>GENI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,41 +744,44 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E8" s="3">
         <v>97200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>85900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>84000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -799,41 +803,44 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E9" s="3">
         <v>87700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>72800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>101400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>240200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,41 +862,44 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E10" s="3">
         <v>9500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-15500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-25400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-17300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-184400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,41 +946,42 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,41 +1062,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1112,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,49 +1202,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E17" s="3">
         <v>120300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>110800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>150900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>133900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>485000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1232,41 +1259,44 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-76300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-64800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-429200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,41 +1343,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-81900</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3">
-        <v>24600</v>
+        <v>-81500</v>
       </c>
       <c r="G20" s="3">
-        <v>34900</v>
+        <v>25000</v>
       </c>
       <c r="H20" s="3">
-        <v>25400</v>
+        <v>35300</v>
       </c>
       <c r="I20" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J20" s="3">
         <v>11700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,41 +1400,44 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-7200</v>
+        <v>11600</v>
       </c>
       <c r="E21" s="3">
-        <v>-109600</v>
+        <v>-6900</v>
       </c>
       <c r="F21" s="3">
-        <v>7900</v>
+        <v>-109200</v>
       </c>
       <c r="G21" s="3">
-        <v>12400</v>
+        <v>8300</v>
       </c>
       <c r="H21" s="3">
-        <v>-22100</v>
+        <v>12800</v>
       </c>
       <c r="I21" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-47200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-451500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,31 +1459,34 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1478,49 +1518,52 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-126700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-70500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-463800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1534,46 +1577,49 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1581,8 +1627,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,49 +1695,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-127700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-464200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1702,49 +1754,52 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-127700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-464200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,41 +2049,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>81900</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-24600</v>
+        <v>81500</v>
       </c>
       <c r="G32" s="3">
-        <v>-34900</v>
+        <v>-25000</v>
       </c>
       <c r="H32" s="3">
-        <v>-25400</v>
+        <v>-35300</v>
       </c>
       <c r="I32" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,49 +2108,52 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-127700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-464200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,49 +2226,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-127700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-464200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,49 +2397,50 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E41" s="3">
         <v>94400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>116900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>174200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>222400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>234200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>275300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1500</v>
       </c>
       <c r="N41" s="3">
         <v>1500</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,38 +2513,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E43" s="3">
         <v>82400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>89600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>77300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2563,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2479,43 +2572,46 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2535,46 +2631,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E45" s="3">
         <v>41300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2591,49 +2690,52 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E46" s="3">
         <v>218400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>236500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>238100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>233500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>294000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>324700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>333900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>344600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1700</v>
       </c>
       <c r="N46" s="3">
         <v>1700</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2647,46 +2749,49 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E47" s="3">
         <v>31800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>276100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>276000</v>
       </c>
       <c r="N47" s="3">
         <v>276000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>276000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
@@ -2703,38 +2808,41 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19300</v>
+        <v>17700</v>
       </c>
       <c r="E48" s="3">
         <v>19300</v>
       </c>
       <c r="F48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2759,38 +2867,41 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>469500</v>
+      </c>
+      <c r="E49" s="3">
         <v>462000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>459100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>428900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>473600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>516700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>537600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>542500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>523100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,50 +3044,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E52" s="3">
         <v>26300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>768800</v>
+      </c>
+      <c r="E54" s="3">
         <v>757900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>773300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>734000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>778000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>859700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>887100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>896900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>890000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>277800</v>
       </c>
       <c r="N54" s="3">
         <v>277800</v>
       </c>
       <c r="O54" s="3">
+        <v>277800</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,37 +3269,38 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E57" s="3">
         <v>21400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3178,10 +3309,10 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3195,37 +3326,40 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3233,12 +3367,12 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E59" s="3">
         <v>116200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>102500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>98100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>105800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>132900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,37 +3444,40 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E60" s="3">
         <v>144800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>171100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>140300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>118400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>152800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>146300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>217400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
@@ -3346,11 +3486,11 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3372,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>7100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3393,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3419,37 +3562,40 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E62" s="3">
         <v>19200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>9700</v>
       </c>
       <c r="M62" s="3">
         <v>9700</v>
@@ -3457,8 +3603,8 @@
       <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>9700</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,37 +3798,40 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E66" s="3">
         <v>164000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>196500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>141200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>184800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>247400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>10200</v>
       </c>
       <c r="M66" s="3">
         <v>10200</v>
@@ -3682,11 +3840,11 @@
         <v>10200</v>
       </c>
       <c r="O66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,49 +4116,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-974400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-964100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-939000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-811200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-802300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-797500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-757300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-704000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-634100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-300</v>
       </c>
       <c r="N72" s="3">
         <v>-300</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,49 +4352,52 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>601300</v>
+      </c>
+      <c r="E76" s="3">
         <v>593900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>576800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>572900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>636800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>691100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>706200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>712100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>642600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>267500</v>
       </c>
       <c r="N76" s="3">
         <v>267500</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+        <v>267500</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,49 +4534,52 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-127700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-464200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,49 +4618,50 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,49 +4970,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,49 +5054,50 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,43 +5229,46 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5049,8 +5279,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,17 +5547,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5325,28 +5571,28 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>375700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>277600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5360,49 +5606,52 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>18700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5416,49 +5665,52 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>264800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GENI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,44 +748,47 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E8" s="3">
         <v>86800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>85900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>84000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -806,44 +810,47 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E9" s="3">
         <v>62200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>101400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>240200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,44 +872,47 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E10" s="3">
         <v>24600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-15500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-25400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-17300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-184400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,44 +960,45 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,44 +1082,47 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,8 +1135,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,52 +1229,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E17" s="3">
         <v>94700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>120300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>110800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>150900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>485000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1262,44 +1289,47 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-64800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-429200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,44 +1377,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-81500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>25000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>35300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,44 +1437,47 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E21" s="3">
         <v>11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-109200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-50900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-451500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,19 +1499,22 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1485,11 +1525,11 @@
       <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1521,52 +1561,55 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-126700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-463800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1580,49 +1623,52 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1630,8 +1676,8 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,52 +1747,55 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-127700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-464200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1757,52 +1809,55 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-127700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-464200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,44 +2119,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>81500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-25000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-35300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,52 +2181,55 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-127700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-464200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,52 +2305,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-127700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-464200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,52 +2484,53 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E41" s="3">
         <v>89800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>174200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>222400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>234200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>275300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1500</v>
       </c>
       <c r="O41" s="3">
         <v>1500</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,41 +2606,44 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E43" s="3">
         <v>99300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>89600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>77300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2659,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2584,37 +2680,37 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2634,49 +2730,52 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E45" s="3">
         <v>32700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>200</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2693,52 +2792,55 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>248100</v>
+      </c>
+      <c r="E46" s="3">
         <v>222200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>218400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>236500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>233500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>294000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>324700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>333900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>344600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1700</v>
       </c>
       <c r="O46" s="3">
         <v>1700</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2752,49 +2854,52 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E47" s="3">
         <v>32400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>276100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>276000</v>
       </c>
       <c r="O47" s="3">
         <v>276000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>276000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2811,41 +2916,44 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>17700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>19300</v>
       </c>
       <c r="F48" s="3">
         <v>19300</v>
       </c>
       <c r="G48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H48" s="3">
         <v>11800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2870,41 +2978,44 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>447200</v>
+      </c>
+      <c r="E49" s="3">
         <v>469500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>462000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>459100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>428900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>473600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>516700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>537600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>542500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>523100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,8 +3031,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,53 +3164,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E52" s="3">
         <v>27000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>772200</v>
+      </c>
+      <c r="E54" s="3">
         <v>768800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>757900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>773300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>734000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>778000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>859700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>887100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>896900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>890000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>277800</v>
       </c>
       <c r="O54" s="3">
         <v>277800</v>
       </c>
       <c r="P54" s="3">
+        <v>277800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,40 +3400,41 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E57" s="3">
         <v>23600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3312,10 +3443,10 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3329,40 +3460,43 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3370,12 +3504,12 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,53 +3522,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E59" s="3">
         <v>117800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>116200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>132900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,40 +3584,43 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E60" s="3">
         <v>148800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>144800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>171100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>140300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>118400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>152800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>146300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>217400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3489,11 +3629,11 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>7100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3539,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3565,40 +3708,43 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>9700</v>
       </c>
       <c r="N62" s="3">
         <v>9700</v>
@@ -3606,8 +3752,8 @@
       <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>9700</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,40 +3956,43 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E66" s="3">
         <v>167500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>196500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>141200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>247400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>10200</v>
       </c>
       <c r="N66" s="3">
         <v>10200</v>
@@ -3843,11 +4001,11 @@
         <v>10200</v>
       </c>
       <c r="P66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,52 +4290,55 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-986000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-974400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-964100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-939000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-811200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-802300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-797500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-757300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-704000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-634100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-300</v>
       </c>
       <c r="O72" s="3">
         <v>-300</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,52 +4538,55 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>577400</v>
+      </c>
+      <c r="E76" s="3">
         <v>601300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>593900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>576800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>572900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>636800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>691100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>706200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>712100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>642600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>267200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>267500</v>
       </c>
       <c r="O76" s="3">
         <v>267500</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+        <v>267500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,52 +4729,55 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-127700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-464200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,52 +4817,53 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E83" s="3">
         <v>17700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,52 +5187,55 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,52 +5275,53 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,46 +5459,49 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-80500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5282,8 +5512,8 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,8 +5793,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5559,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5574,28 +5820,28 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>375700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>277600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5609,52 +5855,55 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>18700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5668,52 +5917,55 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>264800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
